--- a/Info/Componente.xlsx
+++ b/Info/Componente.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Cod componentă</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Tranzistor: PNP; bipolar; 45V; 100mA; 200mW; SOT23</t>
+  </si>
+  <si>
+    <t>TLE4946-2L</t>
+  </si>
+  <si>
+    <t>Latch Hall de mare precizie</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -408,6 +417,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,75 +502,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K9"/>
+  <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,139 +803,160 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="7" t="str">
         <f>HYPERLINK("https://www.tme.eu/ro/details/opd-q5620y-bw/afisaje-led-cvadruple/opto-plus-led-corp/","TME")</f>
         <v>TME</v>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="7" t="str">
         <f>HYPERLINK("https://www.tme.eu/Document/a899b6709c3c40525250f775302b35c1/OPD-Q5620Y-BW.pdf","Link")</f>
         <v>Link</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="6">
         <v>3.27</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23" t="str">
+      <c r="D7" s="11" t="str">
         <f>HYPERLINK("https://www.tme.eu/ro/details/ec11j12-15p30c-sw/encodere-incrementale/sr-passives/ec11e12-15p30c-sw/","TME")</f>
         <v>TME</v>
       </c>
-      <c r="E7" s="23" t="str">
+      <c r="E7" s="11" t="str">
         <f>HYPERLINK("https://www.tme.eu/Document/dab6de2c4798f6a842e4ac29271f1b9f/EC11J12-15P30C-SW.pdf","Link")</f>
         <v>Link</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="10">
         <v>8.02</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="11" t="str">
         <f>HYPERLINK("https://www.tme.eu/ro/details/bc847c.215/tranzistori-smd-npn/nexperia/","TME")</f>
         <v>TME</v>
       </c>
-      <c r="E8" s="23" t="str">
+      <c r="E8" s="11" t="str">
         <f>HYPERLINK("https://assets.nexperia.com/documents/data-sheet/BC847_SER.pdf","Link")</f>
         <v>Link</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="10">
         <v>0.15840000000000001</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="11" t="str">
         <f>HYPERLINK("https://www.tme.eu/ro/details/bc857c.215/tranzistori-smd-pnp/nexperia/","TME")</f>
         <v>TME</v>
       </c>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="11" t="str">
         <f>HYPERLINK("https://assets.nexperia.com/documents/data-sheet/BC856_BC857_BC858.pdf","Link")</f>
         <v>Link</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="10">
         <v>0.15840000000000001</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="str">
+        <f>HYPERLINK("https://www.infineon.com/dgdl/Infineon-TLE4946_2L-DS-v01_00-en.pdf?fileId=db3a304338ec6d390138fc8f905876d3","Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Info/Componente.xlsx
+++ b/Info/Componente.xlsx
@@ -56,12 +56,6 @@
     <t>Preț total [RON]</t>
   </si>
   <si>
-    <t>EC11J12-15P30C-SW</t>
-  </si>
-  <si>
-    <t>Codor: incremental; SMD; 15imp/rotaţie; două semnale A şi B; 5mA</t>
-  </si>
-  <si>
     <t>BC847C.215</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>EC11E12-15P30C-SW</t>
+  </si>
+  <si>
+    <t>Codor: incremental; THT; 15imp/rotaţie; două semnale A şi B; 5mA</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,6 +502,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,12 +791,12 @@
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -876,22 +879,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>10</v>
+      <c r="B7" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11" t="str">
-        <f>HYPERLINK("https://www.tme.eu/ro/details/ec11j12-15p30c-sw/encodere-incrementale/sr-passives/ec11e12-15p30c-sw/","TME")</f>
+        <f>HYPERLINK("https://www.tme.eu/ro/details/ec11e12-15p30c-sw/encodere-incrementale/sr-passives/","TME")</f>
         <v>TME</v>
       </c>
       <c r="E7" s="11" t="str">
-        <f>HYPERLINK("https://www.tme.eu/Document/dab6de2c4798f6a842e4ac29271f1b9f/EC11J12-15P30C-SW.pdf","Link")</f>
+        <f>HYPERLINK("https://www.tme.eu/Document/44e8c47524c4eb6c460cbc7fca5d0c53/EC11E12-15P30C-SW.pdf","Link")</f>
         <v>Link</v>
       </c>
       <c r="F7" s="10">
-        <v>8.02</v>
+        <v>6.26</v>
       </c>
       <c r="G7" s="12">
         <v>1</v>
@@ -899,10 +902,10 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>HYPERLINK("https://www.tme.eu/ro/details/bc847c.215/tranzistori-smd-npn/nexperia/","TME")</f>
@@ -919,10 +922,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>HYPERLINK("https://www.tme.eu/ro/details/bc857c.215/tranzistori-smd-pnp/nexperia/","TME")</f>
@@ -939,20 +942,20 @@
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="E10" s="17" t="str">
         <f>HYPERLINK("https://www.infineon.com/dgdl/Infineon-TLE4946_2L-DS-v01_00-en.pdf?fileId=db3a304338ec6d390138fc8f905876d3","Link")</f>
         <v>Link</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>

--- a/Info/Componente.xlsx
+++ b/Info/Componente.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Componente" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Cod componentă</t>
   </si>
@@ -74,13 +74,28 @@
     <t>Latch Hall de mare precizie</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>EC11E12-15P30C-SW</t>
   </si>
   <si>
     <t>Codor: incremental; THT; 15imp/rotaţie; două semnale A şi B; 5mA</t>
+  </si>
+  <si>
+    <t>LD-BZEN-1205</t>
+  </si>
+  <si>
+    <t>Traductor de sunet: electromagnetic; fără generator încorporat</t>
+  </si>
+  <si>
+    <t>DS18B20+</t>
+  </si>
+  <si>
+    <t>Senzor temperatură; termometru digital; -55÷125°C; TO92; THT</t>
+  </si>
+  <si>
+    <t>RK09K1130AAU</t>
+  </si>
+  <si>
+    <t>Potenţiometru: axial; singură tură; 10kΩ; ±20%; 6mm; pt.PCB</t>
   </si>
 </sst>
 </file>
@@ -468,6 +483,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,9 +520,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,17 +803,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K10"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -806,35 +821,35 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -879,11 +894,11 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>HYPERLINK("https://www.tme.eu/ro/details/ec11e12-15p30c-sw/encodere-incrementale/sr-passives/","TME")</f>
@@ -918,7 +933,9 @@
       <c r="F8" s="10">
         <v>0.15840000000000001</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -938,26 +955,95 @@
       <c r="F9" s="10">
         <v>0.15840000000000001</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="G9" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="17" t="str">
+      <c r="D10" s="11" t="str">
+        <f>HYPERLINK("https://ro.mouser.com/ProductDetail/Infineon-Technologies/TLE4946-2L?qs=sGAEpiMZZMvhQj7WZhFIAPDIuJuz6ELs2XiVbeCMsXM%3D","Mouser")</f>
+        <v>Mouser</v>
+      </c>
+      <c r="E10" s="11" t="str">
         <f>HYPERLINK("https://www.infineon.com/dgdl/Infineon-TLE4946_2L-DS-v01_00-en.pdf?fileId=db3a304338ec6d390138fc8f905876d3","Link")</f>
         <v>Link</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="F10" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>HYPERLINK("https://www.tme.eu/ro/details/ld-bzen-1205/semnaliz-acust-electromag-fara-gener/loudity/","TME")</f>
+        <v>TME</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>HYPERLINK("https://www.tme.eu/Document/f21095d16ba59bdbd6f5bf5f2f188c94/ld-bzen-1205.pdf","Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1.6032999999999999</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>HYPERLINK("https://www.tme.eu/ro/details/ds18b20+/traductor-de-temperatura/maxim-integrated/","TME")</f>
+        <v>TME</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f>HYPERLINK("https://www.tme.eu/Document/dd11228ca818d1ed1f3029ea47fef609/DS18B20+.pdf","Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="F12" s="10">
+        <v>7.26</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f>HYPERLINK("https://www.tme.eu/ro/details/rk09k1130aau/poten-axi-cu-pis-de-car-si-tura-uni/alps/","TME")</f>
+        <v>TME</v>
+      </c>
+      <c r="E13" s="17" t="str">
+        <f>HYPERLINK("https://www.tme.eu/Document/fb277d87df6cd625a5906cf03c82b793/ALPS_RK09K.PDF","Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="G13" s="18">
         <v>1</v>
       </c>
     </row>

--- a/Info/Componente.xlsx
+++ b/Info/Componente.xlsx
@@ -806,7 +806,7 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
